--- a/20181115 - Cronograma personalizaciones ERP - CCG.xlsx
+++ b/20181115 - Cronograma personalizaciones ERP - CCG.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AROCA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEDENO\Desktop\Fuentes Github\ERPWEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,25 +482,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -537,6 +519,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,141 +820,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="23" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="23" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="7" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
       <c r="R1" s="2"/>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="4">
         <f ca="1">TODAY()+4</f>
-        <v>43423</v>
-      </c>
-      <c r="F2" s="10">
+        <v>43425</v>
+      </c>
+      <c r="F2" s="4">
         <f ca="1">E2+1</f>
-        <v>43424</v>
-      </c>
-      <c r="G2" s="11">
+        <v>43426</v>
+      </c>
+      <c r="G2" s="5">
         <f t="shared" ref="G2:W2" ca="1" si="0">F2+1</f>
-        <v>43425</v>
-      </c>
-      <c r="H2" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>43426</v>
-      </c>
-      <c r="I2" s="10">
-        <f t="shared" ca="1" si="0"/>
         <v>43427</v>
       </c>
-      <c r="J2" s="10">
+      <c r="H2" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>43428</v>
       </c>
-      <c r="K2" s="12">
+      <c r="I2" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>43429</v>
       </c>
-      <c r="L2" s="13">
+      <c r="J2" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>43430</v>
       </c>
-      <c r="M2" s="13">
+      <c r="K2" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43431</v>
       </c>
-      <c r="N2" s="13">
+      <c r="L2" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>43432</v>
       </c>
-      <c r="O2" s="13">
+      <c r="M2" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>43433</v>
       </c>
-      <c r="P2" s="13">
+      <c r="N2" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>43434</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="O2" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>43435</v>
       </c>
-      <c r="R2" s="12">
+      <c r="P2" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>43436</v>
       </c>
-      <c r="S2" s="14">
+      <c r="Q2" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>43437</v>
       </c>
-      <c r="T2" s="14">
+      <c r="R2" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>43438</v>
       </c>
-      <c r="U2" s="14">
+      <c r="S2" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>43439</v>
       </c>
-      <c r="V2" s="14">
+      <c r="T2" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>43440</v>
       </c>
-      <c r="W2" s="14">
+      <c r="U2" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>43441</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43442</v>
+      </c>
+      <c r="W2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -970,26 +971,26 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="18"/>
+      <c r="U3" s="12"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1006,25 +1007,25 @@
         <v>11</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="18"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="17"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="18"/>
+      <c r="N4" s="12"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="18"/>
+      <c r="U4" s="12"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,25 +1042,25 @@
         <v>11</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="17"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="18"/>
+      <c r="N5" s="12"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="18"/>
+      <c r="U5" s="12"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,95 +1077,95 @@
         <v>11</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="18"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="17"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="18"/>
+      <c r="N6" s="12"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="18"/>
+      <c r="U6" s="12"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="17"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="18"/>
+      <c r="N7" s="12"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="18"/>
+      <c r="U7" s="12"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="18"/>
+      <c r="N8" s="12"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="18"/>
+      <c r="U8" s="12"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1177,29 +1178,29 @@
       <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="17"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="18"/>
+      <c r="N9" s="12"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="18"/>
+      <c r="U9" s="12"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1212,132 +1213,132 @@
       <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="17"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="18"/>
+      <c r="N10" s="12"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="18"/>
+      <c r="U10" s="12"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="17"/>
+      <c r="K11" s="11"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="18"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="18"/>
+      <c r="U11" s="12"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="18"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="17"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="18"/>
+      <c r="N12" s="12"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="18"/>
+      <c r="U12" s="12"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="18"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="17"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="18"/>
+      <c r="N13" s="12"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="18"/>
+      <c r="U13" s="12"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1350,29 +1351,29 @@
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="17"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="18"/>
+      <c r="N14" s="12"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="18"/>
+      <c r="U14" s="12"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1383,31 +1384,31 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="18"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="17"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="18"/>
+      <c r="N15" s="12"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="18"/>
+      <c r="U15" s="12"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1418,27 +1419,27 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="17"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="18"/>
+      <c r="N16" s="12"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="18"/>
+      <c r="U16" s="12"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,126 +1454,126 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="18"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="17"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="18"/>
+      <c r="N17" s="12"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="18"/>
+      <c r="U17" s="12"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="18"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="17"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="18"/>
+      <c r="N18" s="12"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="18"/>
+      <c r="U18" s="12"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="17"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="18"/>
+      <c r="N19" s="12"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="18"/>
+      <c r="U19" s="12"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="18"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="17"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="18"/>
+      <c r="N20" s="12"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="18"/>
+      <c r="U20" s="12"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1589,25 +1590,25 @@
         <v>34</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="18"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="17"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="18"/>
+      <c r="N21" s="12"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="18"/>
+      <c r="U21" s="12"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,25 +1625,25 @@
         <v>11</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="18"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="17"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="18"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="18"/>
+      <c r="U22" s="12"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1659,25 +1660,25 @@
       <c r="F23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="18"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="17"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="18"/>
+      <c r="N23" s="12"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="18"/>
+      <c r="U23" s="12"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1692,60 +1693,60 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="18"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="17"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="18"/>
+      <c r="N24" s="12"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="18"/>
+      <c r="U24" s="12"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="17"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="18"/>
+      <c r="N25" s="12"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="18"/>
+      <c r="U25" s="12"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,27 +1761,27 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="18"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="17"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="18"/>
+      <c r="N26" s="12"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="18"/>
+      <c r="U26" s="12"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1795,60 +1796,60 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="18"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="17"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="18"/>
+      <c r="N27" s="12"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="18"/>
+      <c r="U27" s="12"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="18"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="17"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="18"/>
+      <c r="N28" s="12"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="18"/>
+      <c r="U28" s="12"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -1863,14 +1864,14 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="18"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="17"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="18" t="s">
+      <c r="N29" s="12" t="s">
         <v>44</v>
       </c>
       <c r="O29" s="2"/>
@@ -1879,110 +1880,110 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="18"/>
+      <c r="U29" s="12"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="18"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="17"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="18"/>
+      <c r="N30" s="12"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="18"/>
+      <c r="U30" s="12"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="18"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="17"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="18"/>
+      <c r="N31" s="12"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="18"/>
+      <c r="U31" s="12"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="18"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="17"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="18"/>
+      <c r="N32" s="12"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="18"/>
+      <c r="U32" s="12"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -1997,27 +1998,27 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="18"/>
+      <c r="G33" s="12"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="17" t="s">
+      <c r="K33" s="11" t="s">
         <v>44</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="18"/>
+      <c r="N33" s="12"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33" s="18"/>
+      <c r="U33" s="12"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2034,25 +2035,25 @@
         <v>44</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="18"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="17"/>
+      <c r="K34" s="11"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="18"/>
+      <c r="N34" s="12"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="18"/>
+      <c r="U34" s="12"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
@@ -2069,25 +2070,25 @@
         <v>44</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="18"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="17"/>
+      <c r="K35" s="11"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="18"/>
+      <c r="N35" s="12"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="18"/>
+      <c r="U35" s="12"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2104,58 +2105,58 @@
         <v>44</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="18"/>
+      <c r="G36" s="12"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="17"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="18"/>
+      <c r="N36" s="12"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="18"/>
+      <c r="U36" s="12"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="18"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="17"/>
+      <c r="K37" s="11"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="18"/>
+      <c r="N37" s="12"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="18"/>
+      <c r="U37" s="12"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -2172,91 +2173,91 @@
         <v>44</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="18"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="17"/>
+      <c r="K38" s="11"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="18"/>
+      <c r="N38" s="12"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="18"/>
+      <c r="U38" s="12"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="18"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="17"/>
+      <c r="K39" s="11"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="18"/>
+      <c r="N39" s="12"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-      <c r="U39" s="18"/>
+      <c r="U39" s="12"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="25" t="s">
+      <c r="B40" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="18"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="17"/>
+      <c r="K40" s="11"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="18"/>
+      <c r="N40" s="12"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-      <c r="U40" s="18"/>
+      <c r="U40" s="12"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -2273,58 +2274,58 @@
         <v>11</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="18"/>
+      <c r="G41" s="12"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="17"/>
+      <c r="K41" s="11"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="18"/>
+      <c r="N41" s="12"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="18"/>
+      <c r="U41" s="12"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="18"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="17"/>
+      <c r="K42" s="11"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-      <c r="N42" s="18"/>
+      <c r="N42" s="12"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="18"/>
+      <c r="U42" s="12"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,25 +2342,25 @@
       <c r="F43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="18"/>
+      <c r="G43" s="12"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="17"/>
+      <c r="K43" s="11"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="18"/>
+      <c r="N43" s="12"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
-      <c r="U43" s="18"/>
+      <c r="U43" s="12"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -2374,27 +2375,27 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="18"/>
+      <c r="G44" s="12"/>
       <c r="H44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="17"/>
+      <c r="K44" s="11"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-      <c r="N44" s="18"/>
+      <c r="N44" s="12"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="18"/>
+      <c r="U44" s="12"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -2409,95 +2410,95 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="18"/>
+      <c r="G45" s="12"/>
       <c r="H45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="17"/>
+      <c r="K45" s="11"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
-      <c r="N45" s="18"/>
+      <c r="N45" s="12"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
-      <c r="U45" s="18"/>
+      <c r="U45" s="12"/>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="18"/>
+      <c r="G46" s="12"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="17"/>
+      <c r="K46" s="11"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-      <c r="N46" s="18"/>
+      <c r="N46" s="12"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="18"/>
+      <c r="U46" s="12"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" s="26" t="s">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="18"/>
+      <c r="G47" s="12"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="17"/>
+      <c r="K47" s="11"/>
       <c r="L47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" s="18"/>
+      <c r="N47" s="12"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-      <c r="U47" s="18"/>
+      <c r="U47" s="12"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>67</v>
       </c>
@@ -2512,60 +2513,60 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="18"/>
+      <c r="G48" s="12"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="17" t="s">
+      <c r="I48" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="18"/>
+      <c r="N48" s="12"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
-      <c r="U48" s="18"/>
+      <c r="U48" s="12"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="18"/>
+      <c r="G49" s="12"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="17"/>
+      <c r="K49" s="11"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-      <c r="N49" s="18"/>
+      <c r="N49" s="12"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
-      <c r="U49" s="18"/>
+      <c r="U49" s="12"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -2580,27 +2581,27 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="18"/>
+      <c r="G50" s="12"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J50" s="2"/>
-      <c r="K50" s="17"/>
+      <c r="K50" s="11"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-      <c r="N50" s="18"/>
+      <c r="N50" s="12"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-      <c r="U50" s="18"/>
+      <c r="U50" s="12"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -2615,27 +2616,27 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="18"/>
+      <c r="G51" s="12"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J51" s="2"/>
-      <c r="K51" s="17"/>
+      <c r="K51" s="11"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
-      <c r="N51" s="18"/>
+      <c r="N51" s="12"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-      <c r="U51" s="18"/>
+      <c r="U51" s="12"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>67</v>
       </c>
@@ -2650,27 +2651,27 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="18"/>
+      <c r="G52" s="12"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="17"/>
+      <c r="K52" s="11"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-      <c r="N52" s="18"/>
+      <c r="N52" s="12"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-      <c r="U52" s="18"/>
+      <c r="U52" s="12"/>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,34 +2686,34 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="18"/>
+      <c r="G53" s="12"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="17"/>
+      <c r="K53" s="11"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="N53" s="18"/>
+      <c r="N53" s="12"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="U53" s="18"/>
+      <c r="U53" s="12"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -2720,7 +2721,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="12" t="s">
         <v>44</v>
       </c>
       <c r="H54" s="2" t="s">
@@ -2728,28 +2729,28 @@
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="17"/>
+      <c r="K54" s="11"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-      <c r="N54" s="18"/>
+      <c r="N54" s="12"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-      <c r="U54" s="18"/>
+      <c r="U54" s="12"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2757,34 +2758,34 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="18"/>
+      <c r="G55" s="12"/>
       <c r="H55" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="17"/>
+      <c r="K55" s="11"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-      <c r="N55" s="18"/>
+      <c r="N55" s="12"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-      <c r="U55" s="18"/>
+      <c r="U55" s="12"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -2792,34 +2793,34 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="18"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
         <v>77</v>
       </c>
       <c r="J56" s="2"/>
-      <c r="K56" s="17"/>
+      <c r="K56" s="11"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="18"/>
+      <c r="N56" s="12"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
-      <c r="U56" s="18"/>
+      <c r="U56" s="12"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -2827,34 +2828,34 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="18"/>
+      <c r="G57" s="12"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="17"/>
+      <c r="K57" s="11"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-      <c r="N57" s="18"/>
+      <c r="N57" s="12"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-      <c r="U57" s="18"/>
+      <c r="U57" s="12"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -2862,34 +2863,34 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="18"/>
+      <c r="G58" s="12"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K58" s="17"/>
+      <c r="K58" s="11"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-      <c r="N58" s="18"/>
+      <c r="N58" s="12"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-      <c r="U58" s="18"/>
+      <c r="U58" s="12"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="21" t="s">
         <v>80</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -2897,34 +2898,34 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="18"/>
+      <c r="G59" s="12"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K59" s="17"/>
+      <c r="K59" s="11"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-      <c r="N59" s="18"/>
+      <c r="N59" s="12"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
-      <c r="U59" s="18"/>
+      <c r="U59" s="12"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="21" t="s">
         <v>81</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -2932,32 +2933,32 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="18"/>
+      <c r="G60" s="12"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="17"/>
+      <c r="K60" s="11"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-      <c r="N60" s="18"/>
+      <c r="N60" s="12"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-      <c r="U60" s="18"/>
+      <c r="U60" s="12"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -2965,34 +2966,34 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="18"/>
+      <c r="G61" s="12"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17" t="s">
+      <c r="K61" s="11"/>
+      <c r="L61" s="11" t="s">
         <v>44</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" s="18"/>
+      <c r="N61" s="12"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
-      <c r="U61" s="18"/>
+      <c r="U61" s="12"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -3000,88 +3001,88 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="18"/>
+      <c r="G62" s="12"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
       <c r="M62" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N62" s="18"/>
+      <c r="N62" s="12"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
-      <c r="U62" s="18"/>
+      <c r="U62" s="12"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="18"/>
+      <c r="G63" s="12"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
-      <c r="K63" s="17"/>
+      <c r="K63" s="11"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
-      <c r="N63" s="18"/>
+      <c r="N63" s="12"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
-      <c r="U63" s="18"/>
+      <c r="U63" s="12"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="18"/>
+      <c r="G64" s="12"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
-      <c r="K64" s="17"/>
+      <c r="K64" s="11"/>
       <c r="L64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N64" s="18" t="s">
+      <c r="N64" s="12" t="s">
         <v>11</v>
       </c>
       <c r="O64" s="2" t="s">
@@ -3100,7 +3101,7 @@
       <c r="T64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U64" s="18" t="s">
+      <c r="U64" s="12" t="s">
         <v>11</v>
       </c>
       <c r="V64" s="2" t="s">
@@ -3110,60 +3111,60 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
-      <c r="K65" s="17"/>
+      <c r="K65" s="11"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="18"/>
+      <c r="N65" s="12"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
-      <c r="U65" s="18"/>
+      <c r="U65" s="12"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D66" s="27"/>
+      <c r="D66" s="21"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="18"/>
+      <c r="G66" s="12"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
-      <c r="K66" s="17"/>
+      <c r="K66" s="11"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N66" s="18" t="s">
+      <c r="N66" s="12" t="s">
         <v>44</v>
       </c>
       <c r="O66" s="2" t="s">
@@ -3178,29 +3179,29 @@
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
-      <c r="U66" s="18"/>
+      <c r="U66" s="12"/>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D67" s="27"/>
+      <c r="D67" s="21"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="18"/>
+      <c r="G67" s="12"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
-      <c r="K67" s="17"/>
+      <c r="K67" s="11"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
-      <c r="N67" s="18"/>
+      <c r="N67" s="12"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -3211,7 +3212,7 @@
       <c r="T67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U67" s="18" t="s">
+      <c r="U67" s="12" t="s">
         <v>8</v>
       </c>
       <c r="V67" s="2" t="s">
@@ -3221,25 +3222,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D68" s="27"/>
+      <c r="D68" s="21"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="18"/>
+      <c r="G68" s="12"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
-      <c r="K68" s="17"/>
+      <c r="K68" s="11"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="18"/>
+      <c r="N68" s="12"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
@@ -3250,7 +3251,7 @@
       <c r="T68" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U68" s="18" t="s">
+      <c r="U68" s="12" t="s">
         <v>44</v>
       </c>
       <c r="V68" s="2" t="s">

--- a/20181115 - Cronograma personalizaciones ERP - CCG.xlsx
+++ b/20181115 - Cronograma personalizaciones ERP - CCG.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$W$68</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -341,7 +344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +390,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -537,6 +546,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,10 +828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,8 +841,11 @@
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="97.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="23" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -880,82 +894,82 @@
       </c>
       <c r="E2" s="4">
         <f ca="1">TODAY()+4</f>
-        <v>43425</v>
+        <v>43427</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">E2+1</f>
-        <v>43426</v>
+        <v>43428</v>
       </c>
       <c r="G2" s="5">
         <f t="shared" ref="G2:W2" ca="1" si="0">F2+1</f>
-        <v>43427</v>
+        <v>43429</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43428</v>
+        <v>43430</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43429</v>
+        <v>43431</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43430</v>
+        <v>43432</v>
       </c>
       <c r="K2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43431</v>
+        <v>43433</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43432</v>
+        <v>43434</v>
       </c>
       <c r="M2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43433</v>
+        <v>43435</v>
       </c>
       <c r="N2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43434</v>
+        <v>43436</v>
       </c>
       <c r="O2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43435</v>
+        <v>43437</v>
       </c>
       <c r="P2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43436</v>
+        <v>43438</v>
       </c>
       <c r="Q2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43437</v>
+        <v>43439</v>
       </c>
       <c r="R2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43438</v>
+        <v>43440</v>
       </c>
       <c r="S2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43439</v>
+        <v>43441</v>
       </c>
       <c r="T2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43440</v>
+        <v>43442</v>
       </c>
       <c r="U2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43441</v>
+        <v>43443</v>
       </c>
       <c r="V2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43442</v>
+        <v>43444</v>
       </c>
       <c r="W2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>43445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,7 +1004,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,7 +1039,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,7 +1074,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1095,7 +1109,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -1128,7 +1142,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -1161,7 +1175,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1196,7 +1210,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1231,7 +1245,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1266,7 +1280,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1301,7 +1315,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>23</v>
       </c>
@@ -1334,7 +1348,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1369,7 +1383,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1404,7 +1418,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1439,7 +1453,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1474,7 +1488,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>29</v>
       </c>
@@ -1507,7 +1521,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>29</v>
       </c>
@@ -1540,7 +1554,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>29</v>
       </c>
@@ -1573,7 +1587,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1608,7 +1622,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1643,7 +1657,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,7 +1692,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1713,7 +1727,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>29</v>
       </c>
@@ -1746,7 +1760,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1781,7 +1795,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1816,7 +1830,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>42</v>
       </c>
@@ -1849,7 +1863,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -1884,7 +1898,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>42</v>
       </c>
@@ -1917,7 +1931,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>42</v>
       </c>
@@ -1950,7 +1964,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>48</v>
       </c>
@@ -1983,7 +1997,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,7 +2137,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>48</v>
       </c>
@@ -2169,7 +2183,7 @@
       <c r="D38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="2"/>
@@ -2191,7 +2205,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>48</v>
       </c>
@@ -2224,7 +2238,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>48</v>
       </c>
@@ -2257,7 +2271,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -2292,7 +2306,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>48</v>
       </c>
@@ -2325,7 +2339,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2360,7 +2374,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -2395,7 +2409,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -2430,7 +2444,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>64</v>
       </c>
@@ -2463,7 +2477,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>64</v>
       </c>
@@ -2498,7 +2512,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>67</v>
       </c>
@@ -2533,7 +2547,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>67</v>
       </c>
@@ -2566,7 +2580,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -2601,7 +2615,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -2636,7 +2650,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>67</v>
       </c>
@@ -2671,7 +2685,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -2706,7 +2720,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>48</v>
       </c>
@@ -2743,7 +2757,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2778,7 +2792,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2813,7 +2827,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
@@ -2848,7 +2862,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>48</v>
       </c>
@@ -2883,7 +2897,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>48</v>
       </c>
@@ -2918,7 +2932,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
@@ -2951,7 +2965,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,7 +3000,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>48</v>
       </c>
@@ -3034,7 +3048,7 @@
       <c r="D63" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F63" s="2"/>
@@ -3056,7 +3070,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>48</v>
       </c>
@@ -3111,7 +3125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
@@ -3144,7 +3158,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>88</v>
       </c>
@@ -3183,7 +3197,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>88</v>
       </c>
@@ -3222,7 +3236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>88</v>
       </c>
@@ -3262,6 +3276,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:W68">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="CCEDENO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="L1:Q1"/>

--- a/20181115 - Cronograma personalizaciones ERP - CCG.xlsx
+++ b/20181115 - Cronograma personalizaciones ERP - CCG.xlsx
@@ -832,7 +832,7 @@
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/20181115 - Cronograma personalizaciones ERP - CCG.xlsx
+++ b/20181115 - Cronograma personalizaciones ERP - CCG.xlsx
@@ -832,7 +832,7 @@
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,7 +2045,7 @@
       <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="2"/>
@@ -2080,7 +2080,7 @@
       <c r="D35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="2"/>
@@ -2115,7 +2115,7 @@
       <c r="D36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="2"/>

--- a/20181115 - Cronograma personalizaciones ERP - CCG.xlsx
+++ b/20181115 - Cronograma personalizaciones ERP - CCG.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEDENO\Desktop\Fuentes Github\ERPWEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AROCA\Desktop\Proyectos GitHub\RPDWEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$W$68</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,6 +528,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,7 +547,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,54 +832,54 @@
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
     <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
       <c r="R1" s="2"/>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
@@ -894,82 +894,82 @@
       </c>
       <c r="E2" s="4">
         <f ca="1">TODAY()+4</f>
-        <v>43427</v>
+        <v>43429</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">E2+1</f>
-        <v>43428</v>
+        <v>43430</v>
       </c>
       <c r="G2" s="5">
         <f t="shared" ref="G2:W2" ca="1" si="0">F2+1</f>
-        <v>43429</v>
+        <v>43431</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43430</v>
+        <v>43432</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43431</v>
+        <v>43433</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43432</v>
+        <v>43434</v>
       </c>
       <c r="K2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43433</v>
+        <v>43435</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43434</v>
+        <v>43436</v>
       </c>
       <c r="M2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43435</v>
+        <v>43437</v>
       </c>
       <c r="N2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43436</v>
+        <v>43438</v>
       </c>
       <c r="O2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43437</v>
+        <v>43439</v>
       </c>
       <c r="P2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43438</v>
+        <v>43440</v>
       </c>
       <c r="Q2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43439</v>
+        <v>43441</v>
       </c>
       <c r="R2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43440</v>
+        <v>43442</v>
       </c>
       <c r="S2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43441</v>
+        <v>43443</v>
       </c>
       <c r="T2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43442</v>
+        <v>43444</v>
       </c>
       <c r="U2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43443</v>
+        <v>43445</v>
       </c>
       <c r="V2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43444</v>
+        <v>43446</v>
       </c>
       <c r="W2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,11 +1004,11 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1017,7 +1017,7 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="24" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2"/>
@@ -1039,11 +1039,11 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1052,7 +1052,7 @@
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="24" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2"/>
@@ -1074,11 +1074,11 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1087,7 +1087,7 @@
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="24" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2"/>
@@ -1109,7 +1109,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1315,7 +1315,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>23</v>
       </c>
@@ -1348,7 +1348,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1383,7 +1383,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>29</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>29</v>
       </c>
@@ -1554,7 +1554,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>29</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>29</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1830,11 +1830,11 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -1863,7 +1863,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -1898,11 +1898,11 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -1931,11 +1931,11 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -1964,7 +1964,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>48</v>
       </c>
@@ -1997,7 +1997,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -2032,11 +2032,11 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2045,7 +2045,7 @@
       <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="2"/>
@@ -2067,7 +2067,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,7 +2080,7 @@
       <c r="D35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="2"/>
@@ -2102,7 +2102,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2115,7 +2115,7 @@
       <c r="D36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="2"/>
@@ -2137,7 +2137,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>48</v>
       </c>
@@ -2170,11 +2170,11 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2183,7 +2183,7 @@
       <c r="D38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="2"/>
@@ -2205,7 +2205,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>48</v>
       </c>
@@ -2238,7 +2238,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>48</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -2306,7 +2306,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>48</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2374,7 +2374,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -2409,7 +2409,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>64</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>64</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>67</v>
       </c>
@@ -2547,7 +2547,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>67</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -2615,7 +2615,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -2650,7 +2650,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,7 +2685,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>48</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2792,7 +2792,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2827,7 +2827,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>48</v>
       </c>
@@ -2897,7 +2897,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>48</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
@@ -3000,7 +3000,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>48</v>
       </c>
@@ -3035,7 +3035,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>48</v>
       </c>
@@ -3048,7 +3048,7 @@
       <c r="D63" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="30" t="s">
+      <c r="E63" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F63" s="2"/>
@@ -3070,7 +3070,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>48</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
@@ -3158,7 +3158,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>88</v>
       </c>
@@ -3197,7 +3197,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>88</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>88</v>
       </c>
@@ -3277,9 +3277,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:W68">
-    <filterColumn colId="4">
+    <filterColumn colId="1">
       <filters>
-        <filter val="CCEDENO"/>
+        <filter val="IOBANDO"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/20181115 - Cronograma personalizaciones ERP - CCG.xlsx
+++ b/20181115 - Cronograma personalizaciones ERP - CCG.xlsx
@@ -828,11 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,84 +893,84 @@
       </c>
       <c r="E2" s="4">
         <f ca="1">TODAY()+4</f>
-        <v>43429</v>
+        <v>43430</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">E2+1</f>
-        <v>43430</v>
+        <v>43431</v>
       </c>
       <c r="G2" s="5">
         <f t="shared" ref="G2:W2" ca="1" si="0">F2+1</f>
-        <v>43431</v>
+        <v>43432</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43432</v>
+        <v>43433</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43433</v>
+        <v>43434</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43434</v>
+        <v>43435</v>
       </c>
       <c r="K2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43435</v>
+        <v>43436</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43436</v>
+        <v>43437</v>
       </c>
       <c r="M2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43437</v>
+        <v>43438</v>
       </c>
       <c r="N2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="O2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43439</v>
+        <v>43440</v>
       </c>
       <c r="P2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43440</v>
+        <v>43441</v>
       </c>
       <c r="Q2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43441</v>
+        <v>43442</v>
       </c>
       <c r="R2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43442</v>
+        <v>43443</v>
       </c>
       <c r="S2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43443</v>
+        <v>43444</v>
       </c>
       <c r="T2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43444</v>
+        <v>43445</v>
       </c>
       <c r="U2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43445</v>
+        <v>43446</v>
       </c>
       <c r="V2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43446</v>
+        <v>43447</v>
       </c>
       <c r="W2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -1210,7 +1209,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1244,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1348,7 +1347,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1383,7 +1382,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,7 +1452,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1587,7 +1586,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1657,7 +1656,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1692,7 +1691,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,7 +1759,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1863,7 +1862,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -1964,7 +1963,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>48</v>
       </c>
@@ -2067,7 +2066,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
@@ -2102,7 +2101,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2205,7 +2204,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>48</v>
       </c>
@@ -2271,7 +2270,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -2306,7 +2305,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>48</v>
       </c>
@@ -2339,7 +2338,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2374,7 +2373,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -2409,7 +2408,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -2444,7 +2443,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>64</v>
       </c>
@@ -2477,7 +2476,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>64</v>
       </c>
@@ -2720,7 +2719,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>48</v>
       </c>
@@ -2757,7 +2756,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2792,7 +2791,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2827,7 +2826,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,7 +2861,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>48</v>
       </c>
@@ -2897,7 +2896,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>48</v>
       </c>
@@ -2932,7 +2931,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
@@ -2965,7 +2964,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
@@ -3000,7 +2999,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>48</v>
       </c>
@@ -3035,7 +3034,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>48</v>
       </c>
@@ -3070,7 +3069,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>48</v>
       </c>
@@ -3125,7 +3124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
@@ -3158,7 +3157,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>88</v>
       </c>
@@ -3197,7 +3196,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>88</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>88</v>
       </c>
@@ -3276,13 +3275,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W68">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="IOBANDO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:W68"/>
   <mergeCells count="3">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="L1:Q1"/>

--- a/20181115 - Cronograma personalizaciones ERP - CCG.xlsx
+++ b/20181115 - Cronograma personalizaciones ERP - CCG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AROCA\Desktop\Proyectos GitHub\RPDWEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OBANDO\Desktop\PROYECTOS GITHUB\RPDWEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -832,23 +832,23 @@
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -879,7 +879,7 @@
       <c r="V1" s="30"/>
       <c r="W1" s="30"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
@@ -894,82 +894,82 @@
       </c>
       <c r="E2" s="4">
         <f ca="1">TODAY()+4</f>
-        <v>43429</v>
+        <v>43430</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">E2+1</f>
-        <v>43430</v>
+        <v>43431</v>
       </c>
       <c r="G2" s="5">
         <f t="shared" ref="G2:W2" ca="1" si="0">F2+1</f>
-        <v>43431</v>
+        <v>43432</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43432</v>
+        <v>43433</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43433</v>
+        <v>43434</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43434</v>
+        <v>43435</v>
       </c>
       <c r="K2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43435</v>
+        <v>43436</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43436</v>
+        <v>43437</v>
       </c>
       <c r="M2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43437</v>
+        <v>43438</v>
       </c>
       <c r="N2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="O2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43439</v>
+        <v>43440</v>
       </c>
       <c r="P2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43440</v>
+        <v>43441</v>
       </c>
       <c r="Q2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43441</v>
+        <v>43442</v>
       </c>
       <c r="R2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43442</v>
+        <v>43443</v>
       </c>
       <c r="S2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43443</v>
+        <v>43444</v>
       </c>
       <c r="T2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43444</v>
+        <v>43445</v>
       </c>
       <c r="U2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43445</v>
+        <v>43446</v>
       </c>
       <c r="V2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43446</v>
+        <v>43447</v>
       </c>
       <c r="W2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +1004,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1074,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1315,7 +1315,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>23</v>
       </c>
@@ -1348,7 +1348,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1383,7 +1383,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>29</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>29</v>
       </c>
@@ -1554,7 +1554,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>29</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>29</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1795,11 +1795,11 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1830,7 +1830,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>42</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>42</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>42</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>48</v>
       </c>
@@ -1997,7 +1997,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
@@ -2102,7 +2102,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2137,7 +2137,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>48</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>48</v>
       </c>
@@ -2238,7 +2238,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>48</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -2306,7 +2306,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>48</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2374,7 +2374,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -2409,7 +2409,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>64</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>64</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>67</v>
       </c>
@@ -2547,7 +2547,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>67</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -2615,7 +2615,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -2650,7 +2650,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,7 +2685,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>48</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2792,7 +2792,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2827,7 +2827,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>48</v>
       </c>
@@ -2897,7 +2897,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>48</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
@@ -3000,7 +3000,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>48</v>
       </c>
@@ -3035,7 +3035,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>48</v>
       </c>
@@ -3070,7 +3070,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>48</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
@@ -3158,7 +3158,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>88</v>
       </c>
@@ -3197,7 +3197,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>88</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>88</v>
       </c>
